--- a/data/trans_bre/P25_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>118,5%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>73,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-17,66%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-79,66%</t>
         </is>
       </c>
     </row>
@@ -668,40 +720,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,13</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,5</t>
+          <t>-1,79; 3,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-3,34; 1,49</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 0,42</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-3,26</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-3,11</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-30,79%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>-29,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-65,58%</t>
+          <t>43,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-57,25%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-65,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-12,23%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,38</t>
+          <t>-4,73; 2,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,71</t>
+          <t>-1,97; 3,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,55</t>
+          <t>-2,15; 2,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,33</t>
+          <t>-8,37; 0,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,33; 175,2</t>
+          <t>-7,89; 0,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,19; 479,34</t>
+          <t>-5,51; 4,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>-85,73; 185,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-66,17; 653,79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 50,35</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-87,68; 60,36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 94,98</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-80,94; 223,13</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-3,04</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-12,65%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-60,76%</t>
+          <t>-8,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-39,79%</t>
+          <t>-42,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-38,6%</t>
+          <t>-61,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-39,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-38,64%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-58,32%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,42</t>
+          <t>-6,9; 0,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -1,24</t>
+          <t>-8,59; -1,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 0,21</t>
+          <t>-6,48; 0,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 1,59</t>
+          <t>-5,13; 6,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,71; 134,79</t>
+          <t>-9,29; 0,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,53; -15,87</t>
+          <t>-17,07; -2,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 9,19</t>
+          <t>-77,27; 27,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,17; 36,77</t>
+          <t>-82,97; -15,86</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-67,33; 18,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-44,14; 114,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-75,99; 26,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-80,25; -21,79</t>
         </is>
       </c>
     </row>
@@ -925,37 +1077,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-4,35</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,5%</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>-9,58%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-8,53%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-18,71%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-16,56%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 6,45</t>
+          <t>-6,44; 6,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 4,39</t>
+          <t>-6,91; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 5,99</t>
+          <t>-5,39; 6,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 2,88</t>
+          <t>-8,84; 4,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 45,81</t>
+          <t>-12,36; 4,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 34,24</t>
+          <t>-12,13; 3,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 42,2</t>
+          <t>-30,92; 47,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 16,51</t>
+          <t>-38,54; 30,09</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-24,68; 44,35</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-33,55; 27,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-45,2; 23,78</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-42,32; 17,17</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-8,47</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-5,07</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,28%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,18%</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>-10,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-15,92%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-21,2%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-13,73%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-19,64%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 7,91</t>
+          <t>-11,13; 7,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 4,49</t>
+          <t>-11,6; 3,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 1,76</t>
+          <t>-16,17; 1,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 4,39</t>
+          <t>-18,33; 1,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 28,55</t>
+          <t>-14,59; 4,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 16,34</t>
+          <t>-16,69; 1,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 5,05</t>
+          <t>-29,32; 25,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 14,74</t>
+          <t>-31,4; 13,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-35,56; 4,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-41,96; 2,5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-34,37; 14,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-40,03; 6,31</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>15,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28,24%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 25,91</t>
+          <t>5,29; 25,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 14,54</t>
+          <t>-4,82; 15,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 17,15</t>
+          <t>-6,9; 13,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 12,95</t>
+          <t>-4,14; 21,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 63,11</t>
+          <t>-10,58; 14,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 33,34</t>
+          <t>-0,21; 23,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 35,32</t>
+          <t>9,26; 60,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 25,97</t>
+          <t>-8,79; 35,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-11,29; 27,99</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 53,95</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; 29,29</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 63,63</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>27,12%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>2,41%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,27</t>
+          <t>0,85; 7,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,91</t>
+          <t>-1,58; 4,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,8</t>
+          <t>-1,59; 4,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 4,55</t>
+          <t>-2,62; 4,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 53,46</t>
+          <t>-3,48; 4,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 25,02</t>
+          <t>-3,11; 4,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 25,97</t>
+          <t>4,33; 45,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 24,4</t>
+          <t>-8,46; 26,84</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 27,59</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-11,86; 25,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-15,53; 22,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 21,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
